--- a/xlsx/_wiki_骆马_intext.xlsx
+++ b/xlsx/_wiki_骆马_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>骆马</t>
   </si>
@@ -219,12 +219,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ar.wikipedia.org/wiki/%D9%84%D8%A7%D9%85%D8%A7%D9%88%D9%8A%D8%A9</t>
@@ -621,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,29 +1609,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>43</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_骆马_intext.xlsx
+++ b/xlsx/_wiki_骆马_intext.xlsx
@@ -23,139 +23,139 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%AA%86%E9%A9%AC</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E7%8A%B6%E5%86%B5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%9D%E6%8A%A4%E7%8A%B6%E5%86%B5</t>
   </si>
   <si>
     <t>保护状况</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
     <t>科学分类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E7%95%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8B%95%E7%89%A9%E7%95%8C</t>
   </si>
   <si>
     <t>动物界</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E7%B4%A2%E5%8B%95%E7%89%A9%E9%96%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%84%8A%E7%B4%A2%E5%8B%95%E7%89%A9%E9%96%80</t>
   </si>
   <si>
     <t>脊索动物门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%BA%E4%B9%B3%E7%B6%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%BA%E4%B9%B3%E7%B6%B1</t>
   </si>
   <si>
     <t>哺乳纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%B6%E8%B9%84%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%81%B6%E8%B9%84%E7%9B%AE</t>
   </si>
   <si>
     <t>偶蹄目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A7%B1%E9%A7%9D%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A7%B1%E9%A7%9D%E7%A7%91</t>
   </si>
   <si>
     <t>骆驼科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%9E</t>
   </si>
   <si>
     <t>属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E9%A7%9D%E5%B1%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8A%E9%A7%9D%E5%B1%AC</t>
   </si>
   <si>
     <t>羊驼属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BE%8A%E9%A7%9D%E5%B1%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E7%BE%8A%E9%A7%9D%E5%B1%AC</t>
   </si>
   <si>
     <t>小羊驼属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%90%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%A6%E5%90%8D</t>
   </si>
   <si>
     <t>学名</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
     <t>美洲大陆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
     <t>南美洲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
     <t>中文</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AA%86%E9%A9%BC%E5%B1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AA%86%E9%A9%BC%E5%B1%9E</t>
   </si>
   <si>
     <t>骆驼属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%B3%B0%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%8C%E5%B3%B0%E9%A9%BC</t>
   </si>
   <si>
     <t>双峰驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%B3%B0%E9%A7%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%96%AE%E5%B3%B0%E9%A7%9D</t>
   </si>
   <si>
     <t>单峰驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%9F%E9%A9%BC</t>
   </si>
   <si>
     <t>原驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%BE%8A%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E7%BE%8A%E9%A9%BC</t>
   </si>
   <si>
     <t>大羊驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A7%B1%E9%A6%AC%E5%B1%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A7%B1%E9%A6%AC%E5%B1%AC</t>
   </si>
   <si>
     <t>骆马属</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BE%8A%E9%A7%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E7%BE%8A%E9%A7%9D</t>
   </si>
   <si>
     <t>小羊驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8A%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8A%E9%A9%BC</t>
   </si>
   <si>
     <t>羊驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B1%B3</t>
   </si>
   <si>
     <t>米</t>
@@ -167,22 +167,22 @@
     <t>en-Llama</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%BE%8A%E9%A7%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%B6%E7%BE%8A%E9%A7%9D</t>
   </si>
   <si>
     <t>家羊驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A7%B1%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%B3%B0%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A7%B1%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A0%E5%B3%B0%E9%A9%BC</t>
   </si>
   <si>
     <t>无峰驼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AA%86%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AA%86%E9%A9%BC</t>
   </si>
   <si>
     <t>骆驼</t>
@@ -200,7 +200,7 @@
     <t>en-Alpaca</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%BC%E7%BE%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%BC%E7%BE%8A</t>
   </si>
   <si>
     <t>驼羊</t>
@@ -212,7 +212,7 @@
     <t>en-Vicuña</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%A9%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E6%B4%B2%E9%A9%BC</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
